--- a/metricas.xlsx
+++ b/metricas.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3bcc06e24c25d859/Documentos/Investigacion/control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="319" documentId="11_AD4D2F04E46CFB4ACB3E20EA5591E85A693EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10E977DF-2410-4047-860F-0816B04FEB56}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="11_AD4D2F04E46CFB4ACB3E20EA5591E85A693EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF356B20-F0AC-4B2D-A811-EA22AB207F78}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="const" sheetId="1" r:id="rId1"/>
-    <sheet name="rand" sheetId="2" r:id="rId2"/>
-    <sheet name="3tcons" sheetId="3" r:id="rId3"/>
-    <sheet name="3trand" sheetId="4" r:id="rId4"/>
+    <sheet name="iea_const" sheetId="1" r:id="rId1"/>
+    <sheet name="iea_rand" sheetId="2" r:id="rId2"/>
+    <sheet name="iea_3tcons" sheetId="3" r:id="rId3"/>
+    <sheet name="iea_3trand" sheetId="4" r:id="rId4"/>
     <sheet name="overshoot_1t" sheetId="5" r:id="rId5"/>
     <sheet name="error_ss_1t" sheetId="6" r:id="rId6"/>
     <sheet name="settling_time_1t" sheetId="7" r:id="rId7"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +737,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +825,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95156212-CC61-4B0F-BDAB-4EAB127CD269}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2779DCA-E747-48D1-9F9F-F30254C068A9}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,7 +1255,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>83.75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1457,7 @@
   <dimension ref="A3:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
